--- a/Career Planning.xlsx
+++ b/Career Planning.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Desktop\Work Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70917BF2-0399-4736-80C8-37EA49D0E042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E28A31-8C3F-4772-A5E8-AA894E0260FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
+    <workbookView xWindow="1600" yWindow="3010" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="6" r:id="rId1"/>
-    <sheet name="Career Goals" sheetId="3" r:id="rId2"/>
-    <sheet name="Education" sheetId="5" r:id="rId3"/>
-    <sheet name="Skills" sheetId="4" r:id="rId4"/>
-    <sheet name="Goal Outline" sheetId="1" r:id="rId5"/>
-    <sheet name="Additional Resources" sheetId="2" r:id="rId6"/>
+    <sheet name="Introduction" sheetId="7" r:id="rId2"/>
+    <sheet name="Career Goals" sheetId="3" r:id="rId3"/>
+    <sheet name="Education" sheetId="5" r:id="rId4"/>
+    <sheet name="Skills" sheetId="4" r:id="rId5"/>
+    <sheet name="Goal Outline" sheetId="1" r:id="rId6"/>
+    <sheet name="Additional Resources" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="249">
   <si>
     <t>July</t>
   </si>
@@ -735,6 +736,49 @@
   </si>
   <si>
     <t>Dated:</t>
+  </si>
+  <si>
+    <t>Do not edit this page.</t>
+  </si>
+  <si>
+    <t>Our first meeting will consist of an introduction and a review of your completed Career Goals, Education, and Goal Outline</t>
+  </si>
+  <si>
+    <t>Introduction:</t>
+  </si>
+  <si>
+    <t>Myself:</t>
+  </si>
+  <si>
+    <t>Github Page:</t>
+  </si>
+  <si>
+    <t>LinkedIn Page:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.linkedin.com/in/brad-voris/</t>
+  </si>
+  <si>
+    <t>https://github.com/bvoris</t>
+  </si>
+  <si>
+    <t>Brad started his career in Information Technology and Cyber Security in 1999. He has numerous certifications including his CISSP, CISM, CCSK, NSE-1, NSE-2, MCP, and Network+ among many others. 
+Over his career he has worked with enterprise organizations like United Airlines, JP Morgan Chase, Texas Children’s Hospital and Walmart eCommerce. Brad is a U.S. Army Veteran.</t>
+  </si>
+  <si>
+    <t>Discord Channel:</t>
+  </si>
+  <si>
+    <t>https://discord.gg/u2TwuRgr36</t>
+  </si>
+  <si>
+    <t>Do not edit this page</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Summary: My brief introduction and mediums for connectivity.</t>
   </si>
 </sst>
 </file>
@@ -937,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -969,6 +1013,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -978,7 +1023,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1294,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E2145F-6502-4EDC-9455-4BC1E4A808AD}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,7 +1359,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B2" t="s">
@@ -1320,19 +1367,27 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B3" s="20">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="24">
-        <v>44575</v>
+      <c r="B4" s="21">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1342,11 +1397,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C963EFA-E1AD-437E-89F0-12159E702879}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="76.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{D45047C5-0941-443C-AF43-E2543689E67B}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{A12F2906-6ECC-409F-ABC8-6B4952F95C96}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{C222E7E2-9F83-4205-955E-147C7BAFDB8E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E966F65-B509-4F97-946C-F5FC6DC1A117}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1459,7 +1607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32572638-18BB-4CFB-8AC6-BA1A3BEB08D0}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1545,7 +1693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066A565B-A68B-4D50-AB46-5189692A49A8}">
   <dimension ref="A1:H85"/>
   <sheetViews>
@@ -2887,7 +3035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FB7FC5-B546-4BFF-B612-116092AB4C7E}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
@@ -2916,34 +3064,34 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B5" s="21">
+      <c r="B5" s="22">
         <v>2022</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="21">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="22">
         <v>2023</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="24"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
@@ -3115,7 +3263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FCAB0A-CF34-4155-AC2A-718F62C76466}">
   <dimension ref="A1:A18"/>
   <sheetViews>

--- a/Career Planning.xlsx
+++ b/Career Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Desktop\Work Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E28A31-8C3F-4772-A5E8-AA894E0260FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDFFE9A-0984-450E-92A9-FE69B8972A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="3010" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="251">
   <si>
     <t>July</t>
   </si>
@@ -779,6 +779,12 @@
   </si>
   <si>
     <t>Summary: My brief introduction and mediums for connectivity.</t>
+  </si>
+  <si>
+    <t>Twitter Page:</t>
+  </si>
+  <si>
+    <t>https://twitter.com/HMInfoSecViking</t>
   </si>
 </sst>
 </file>
@@ -1014,6 +1020,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,9 +1031,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1401,7 +1407,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1438,7 +1444,7 @@
       <c r="A6" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>243</v>
       </c>
     </row>
@@ -1463,14 +1469,19 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -1482,10 +1493,11 @@
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{D45047C5-0941-443C-AF43-E2543689E67B}"/>
     <hyperlink ref="B8" r:id="rId2" xr:uid="{A12F2906-6ECC-409F-ABC8-6B4952F95C96}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{C222E7E2-9F83-4205-955E-147C7BAFDB8E}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{C222E7E2-9F83-4205-955E-147C7BAFDB8E}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{3ED10FF9-6566-442C-B332-04F63D01008E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3064,34 +3076,34 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B5" s="22">
+      <c r="B5" s="23">
         <v>2022</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="22">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="23">
         <v>2023</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="25"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>

--- a/Career Planning.xlsx
+++ b/Career Planning.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Desktop\Work Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDFFE9A-0984-450E-92A9-FE69B8972A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49995AE3-D7A8-4B6F-A4F3-C7C65AB8201C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="3010" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
+    <workbookView xWindow="23540" yWindow="5380" windowWidth="28800" windowHeight="15410" activeTab="7" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="6" r:id="rId1"/>
-    <sheet name="Introduction" sheetId="7" r:id="rId2"/>
-    <sheet name="Career Goals" sheetId="3" r:id="rId3"/>
-    <sheet name="Education" sheetId="5" r:id="rId4"/>
-    <sheet name="Skills" sheetId="4" r:id="rId5"/>
-    <sheet name="Goal Outline" sheetId="1" r:id="rId6"/>
-    <sheet name="Additional Resources" sheetId="2" r:id="rId7"/>
+    <sheet name="How To" sheetId="8" r:id="rId2"/>
+    <sheet name="Introduction" sheetId="7" r:id="rId3"/>
+    <sheet name="Career Goals" sheetId="3" r:id="rId4"/>
+    <sheet name="Education" sheetId="5" r:id="rId5"/>
+    <sheet name="Skills" sheetId="4" r:id="rId6"/>
+    <sheet name="Goal Outline" sheetId="1" r:id="rId7"/>
+    <sheet name="Additional Resources" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="265">
   <si>
     <t>July</t>
   </si>
@@ -202,9 +203,6 @@
   </si>
   <si>
     <t>Individual Name</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>Career Training Requirement</t>
@@ -785,6 +783,51 @@
   </si>
   <si>
     <t>https://twitter.com/HMInfoSecViking</t>
+  </si>
+  <si>
+    <t>How do I fill this out?</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Do not edit anything</t>
+  </si>
+  <si>
+    <t>How To</t>
+  </si>
+  <si>
+    <t>Context to modify</t>
+  </si>
+  <si>
+    <t>Fill out areas in current role, short term 1-3 years, long term 3-10 years</t>
+  </si>
+  <si>
+    <t>Fill out areas for will you persue further academic education, and cost (these can be estimates)</t>
+  </si>
+  <si>
+    <t>Goal Outline</t>
+  </si>
+  <si>
+    <t>What do you want to accomplish?</t>
+  </si>
+  <si>
+    <t>Fill out areas under What do you want to do, color code the area corresponding to what you want to do by the date you want to complete it.</t>
+  </si>
+  <si>
+    <t>Cyber Seek Career Pathway</t>
+  </si>
+  <si>
+    <t>https://www.cyberseek.org/pathway.html</t>
+  </si>
+  <si>
+    <t>CyberSecurity Guide</t>
+  </si>
+  <si>
+    <t>https://cybersecurityguide.org/careers/</t>
   </si>
 </sst>
 </file>
@@ -1349,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E2145F-6502-4EDC-9455-4BC1E4A808AD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1361,31 +1404,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="20">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="21">
-        <v>44613</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1393,7 +1436,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1403,12 +1446,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2F3DF2-4B1E-467A-94CF-C64133C74AD8}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C963EFA-E1AD-437E-89F0-12159E702879}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1418,12 +1555,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1431,10 +1568,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1442,10 +1579,10 @@
     </row>
     <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1453,40 +1590,40 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>240</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E966F65-B509-4F97-946C-F5FC6DC1A117}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1619,7 +1756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32572638-18BB-4CFB-8AC6-BA1A3BEB08D0}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1695,7 +1832,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1705,7 +1842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066A565B-A68B-4D50-AB46-5189692A49A8}">
   <dimension ref="A1:H85"/>
   <sheetViews>
@@ -1746,13 +1883,13 @@
         <v>33</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>34</v>
@@ -1769,13 +1906,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -1785,13 +1922,13 @@
     </row>
     <row r="6" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -1801,13 +1938,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1817,13 +1954,13 @@
     </row>
     <row r="8" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -1833,13 +1970,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1849,13 +1986,13 @@
     </row>
     <row r="10" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -1865,13 +2002,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1881,13 +2018,13 @@
     </row>
     <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -1897,13 +2034,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1913,13 +2050,13 @@
     </row>
     <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -1929,13 +2066,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1945,13 +2082,13 @@
     </row>
     <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -1961,13 +2098,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -1977,13 +2114,13 @@
     </row>
     <row r="18" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -1993,13 +2130,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -2009,13 +2146,13 @@
     </row>
     <row r="20" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -2025,13 +2162,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -2041,13 +2178,13 @@
     </row>
     <row r="22" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2057,13 +2194,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -2073,13 +2210,13 @@
     </row>
     <row r="24" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2089,13 +2226,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -2105,13 +2242,13 @@
     </row>
     <row r="26" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -2121,13 +2258,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2137,13 +2274,13 @@
     </row>
     <row r="28" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2153,13 +2290,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -2169,13 +2306,13 @@
     </row>
     <row r="30" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -2185,13 +2322,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>179</v>
-      </c>
       <c r="C31" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -2201,13 +2338,13 @@
     </row>
     <row r="32" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -2217,11 +2354,11 @@
     </row>
     <row r="33" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -2231,11 +2368,11 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -2245,11 +2382,11 @@
     </row>
     <row r="35" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -2259,13 +2396,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -2275,13 +2412,13 @@
     </row>
     <row r="37" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
@@ -2291,13 +2428,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -2307,13 +2444,13 @@
     </row>
     <row r="39" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -2323,13 +2460,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -2339,13 +2476,13 @@
     </row>
     <row r="41" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -2355,15 +2492,15 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -2371,15 +2508,15 @@
     </row>
     <row r="43" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
@@ -2387,11 +2524,11 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -2401,11 +2538,11 @@
     </row>
     <row r="45" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -2415,11 +2552,11 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -2429,13 +2566,13 @@
     </row>
     <row r="47" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
@@ -2445,13 +2582,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -2461,13 +2598,13 @@
     </row>
     <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
@@ -2477,13 +2614,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -2493,13 +2630,13 @@
     </row>
     <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
@@ -2509,13 +2646,13 @@
     </row>
     <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>188</v>
-      </c>
       <c r="C52" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
@@ -2525,13 +2662,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -2541,13 +2678,13 @@
     </row>
     <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
@@ -2557,13 +2694,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
@@ -2573,13 +2710,13 @@
     </row>
     <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
@@ -2589,13 +2726,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -2605,11 +2742,11 @@
     </row>
     <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -2619,11 +2756,11 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -2633,13 +2770,13 @@
     </row>
     <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -2649,11 +2786,11 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -2663,11 +2800,11 @@
     </row>
     <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
@@ -2677,13 +2814,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
@@ -2693,13 +2830,13 @@
     </row>
     <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
@@ -2709,13 +2846,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -2725,11 +2862,11 @@
     </row>
     <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
@@ -2739,11 +2876,11 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
@@ -2753,13 +2890,13 @@
     </row>
     <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
@@ -2769,13 +2906,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -2785,13 +2922,13 @@
     </row>
     <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
@@ -2801,13 +2938,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
@@ -2817,13 +2954,13 @@
     </row>
     <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
@@ -2833,13 +2970,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -2849,13 +2986,13 @@
     </row>
     <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
@@ -2865,13 +3002,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -2881,13 +3018,13 @@
     </row>
     <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
@@ -2897,13 +3034,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -2913,13 +3050,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -2929,13 +3066,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
@@ -2945,13 +3082,13 @@
     </row>
     <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -2961,13 +3098,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
@@ -2977,13 +3114,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -2993,13 +3130,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
@@ -3009,13 +3146,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -3025,13 +3162,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
@@ -3047,17 +3184,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FB7FC5-B546-4BFF-B612-116092AB4C7E}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.5" x14ac:dyDescent="0.45">
@@ -3071,11 +3208,12 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
       <c r="B5" s="23">
         <v>2022</v>
       </c>
@@ -3275,12 +3413,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FCAB0A-CF34-4155-AC2A-718F62C76466}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3340,17 +3478,37 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3361,6 +3519,8 @@
     <hyperlink ref="A3" r:id="rId4" xr:uid="{98B0B3B5-B2AE-4EEA-978A-F7A8C07F315C}"/>
     <hyperlink ref="A15" r:id="rId5" xr:uid="{FF913411-454B-48E0-A530-F18C8BEFE35B}"/>
     <hyperlink ref="A18" r:id="rId6" xr:uid="{06551A42-4A1C-4F43-95D1-627A24C9BF68}"/>
+    <hyperlink ref="A21" r:id="rId7" xr:uid="{538CA7A3-D66B-4AB5-8721-C3ACC7336AEB}"/>
+    <hyperlink ref="A24" r:id="rId8" xr:uid="{4F607F03-7CA4-4993-857C-57BCFA452427}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Career Planning.xlsx
+++ b/Career Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49995AE3-D7A8-4B6F-A4F3-C7C65AB8201C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA10FD1C-6C27-480B-BC18-709D234A4086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23540" yWindow="5380" windowWidth="28800" windowHeight="15410" activeTab="7" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="267">
   <si>
     <t>July</t>
   </si>
@@ -828,6 +828,12 @@
   </si>
   <si>
     <t>https://cybersecurityguide.org/careers/</t>
+  </si>
+  <si>
+    <t>For an instruction guide go here:</t>
+  </si>
+  <si>
+    <t>https://bvoris.github.io/content/career%20planning%20guide/2022/05/03/careerplanningguide/</t>
   </si>
 </sst>
 </file>
@@ -1447,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2F3DF2-4B1E-467A-94CF-C64133C74AD8}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1465,10 +1471,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>255</v>
       </c>
     </row>
@@ -1536,7 +1542,20 @@
         <v>253</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{12BD254E-66D7-46F2-87B1-94D5B668B12D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3417,7 +3436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FCAB0A-CF34-4155-AC2A-718F62C76466}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/Career Planning.xlsx
+++ b/Career Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA10FD1C-6C27-480B-BC18-709D234A4086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54227038-B618-4EAA-A6ED-603CC35FD195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="268">
   <si>
     <t>July</t>
   </si>
@@ -834,6 +834,9 @@
   </si>
   <si>
     <t>https://bvoris.github.io/content/career%20planning%20guide/2022/05/03/careerplanningguide/</t>
+  </si>
+  <si>
+    <t>Information Technology: Data Science (machine learning, artificial intelligence, etc.)</t>
   </si>
 </sst>
 </file>
@@ -1455,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2F3DF2-4B1E-467A-94CF-C64133C74AD8}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1863,11 +1866,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066A565B-A68B-4D50-AB46-5189692A49A8}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2371,307 +2374,303 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B37" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B38" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="15" t="s">
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B39" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="18" t="s">
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B40" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B41" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B42" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18" t="s">
+      <c r="D44" s="18"/>
+      <c r="E44" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="15" t="s">
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15" t="s">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="18" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15" t="s">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B48" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="15" t="s">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B49" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="49" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B50" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C50" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B51" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
@@ -2679,525 +2678,541 @@
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B54" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B55" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C55" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="15" t="s">
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B56" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="18" t="s">
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C57" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B58" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="15" t="s">
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15" t="s">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-    </row>
-    <row r="60" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="18" t="s">
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C61" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="15" t="s">
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15" t="s">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-    </row>
-    <row r="62" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="18" t="s">
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="15" t="s">
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B64" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-    </row>
-    <row r="64" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="18" t="s">
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B65" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C65" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="15" t="s">
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B66" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="18" t="s">
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="15" t="s">
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15" t="s">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="68" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="18" t="s">
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B69" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C69" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B70" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-    </row>
-    <row r="70" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="18" t="s">
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B71" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C71" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="15" t="s">
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B72" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-    </row>
-    <row r="72" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="18" t="s">
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B73" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C73" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="15" t="s">
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B74" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-    </row>
-    <row r="74" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="18" t="s">
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B75" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C75" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="15" t="s">
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B76" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-    </row>
-    <row r="76" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="18" t="s">
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B77" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C77" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="15" t="s">
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B78" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B79" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="15" t="s">
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B80" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-    </row>
-    <row r="80" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="18" t="s">
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B81" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C81" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="15" t="s">
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B82" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="15" t="s">
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B84" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="6" t="s">
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="15" t="s">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B86" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H85">
-    <sortCondition ref="A5:A85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H86">
+    <sortCondition ref="A5:A86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Career Planning.xlsx
+++ b/Career Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54227038-B618-4EAA-A6ED-603CC35FD195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB326D2B-BA14-41CF-AC4B-E663FAB53CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
+    <workbookView xWindow="-25710" yWindow="20" windowWidth="25820" windowHeight="13900" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="269">
   <si>
     <t>July</t>
   </si>
@@ -665,9 +665,6 @@
   </si>
   <si>
     <t>Vmware Certified Professional Desktop and Mobility</t>
-  </si>
-  <si>
-    <t>Learn this on the job</t>
   </si>
   <si>
     <t>DevOps, Web Developer, Full Stack Developer</t>
@@ -837,6 +834,12 @@
   </si>
   <si>
     <t>Information Technology: Data Science (machine learning, artificial intelligence, etc.)</t>
+  </si>
+  <si>
+    <t>Microsoft Virtual Days Free Training</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/trainingdays/</t>
   </si>
 </sst>
 </file>
@@ -1401,14 +1404,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E2145F-6502-4EDC-9455-4BC1E4A808AD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1429,15 +1432,15 @@
         <v>181</v>
       </c>
       <c r="B3" s="20">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="21">
-        <v>44684</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1445,7 +1448,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1470,39 +1473,39 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1510,7 +1513,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1518,7 +1521,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1526,15 +1529,15 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1542,17 +1545,17 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +1570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C963EFA-E1AD-437E-89F0-12159E702879}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1577,12 +1582,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1590,10 +1595,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1601,10 +1606,10 @@
     </row>
     <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -1612,40 +1617,40 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>239</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>248</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E966F65-B509-4F97-946C-F5FC6DC1A117}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1780,84 +1785,74 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32572638-18BB-4CFB-8AC6-BA1A3BEB08D0}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.26953125" customWidth="1"/>
     <col min="2" max="2" width="43.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="14"/>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1868,9 +1863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066A565B-A68B-4D50-AB46-5189692A49A8}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2078,7 +2073,7 @@
         <v>141</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -2094,7 +2089,7 @@
         <v>141</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2110,7 +2105,7 @@
         <v>141</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -2126,7 +2121,7 @@
         <v>142</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2254,7 +2249,7 @@
         <v>139</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -2270,7 +2265,7 @@
         <v>170</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -2286,7 +2281,7 @@
         <v>179</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2302,7 +2297,7 @@
         <v>185</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2318,7 +2313,7 @@
         <v>148</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -2334,7 +2329,7 @@
         <v>139</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -2350,7 +2345,7 @@
         <v>178</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -2366,7 +2361,7 @@
         <v>140</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -2376,7 +2371,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2468,7 +2463,7 @@
         <v>157</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -2484,7 +2479,7 @@
         <v>157</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -2500,7 +2495,7 @@
         <v>209</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -2516,7 +2511,7 @@
         <v>210</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -2533,9 +2528,7 @@
         <v>191</v>
       </c>
       <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
-        <v>211</v>
-      </c>
+      <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -2549,9 +2542,7 @@
         <v>191</v>
       </c>
       <c r="D44" s="18"/>
-      <c r="E44" s="18" t="s">
-        <v>211</v>
-      </c>
+      <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -2576,7 +2567,7 @@
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -2590,7 +2581,7 @@
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -2622,7 +2613,7 @@
         <v>165</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -2654,7 +2645,7 @@
         <v>163</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
@@ -2670,7 +2661,7 @@
         <v>150</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
@@ -2686,7 +2677,7 @@
         <v>187</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -2702,7 +2693,7 @@
         <v>151</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -2718,7 +2709,7 @@
         <v>167</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
@@ -2734,7 +2725,7 @@
         <v>145</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -2750,7 +2741,7 @@
         <v>146</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
@@ -2766,7 +2757,7 @@
         <v>168</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -2780,7 +2771,7 @@
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
@@ -2794,7 +2785,7 @@
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -2824,7 +2815,7 @@
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
@@ -2838,7 +2829,7 @@
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
@@ -2854,7 +2845,7 @@
         <v>169</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -2870,7 +2861,7 @@
         <v>154</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
@@ -2886,7 +2877,7 @@
         <v>155</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -2900,7 +2891,7 @@
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
@@ -2914,7 +2905,7 @@
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -2930,7 +2921,7 @@
         <v>152</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
@@ -2946,7 +2937,7 @@
         <v>158</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -2962,7 +2953,7 @@
         <v>156</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
@@ -2978,7 +2969,7 @@
         <v>157</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -3090,7 +3081,7 @@
         <v>176</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -3223,7 +3214,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3246,10 +3237,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" s="23">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -3263,7 +3254,7 @@
       <c r="L5" s="24"/>
       <c r="M5" s="25"/>
       <c r="N5" s="23">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
@@ -3362,7 +3353,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="21" spans="1:25" ht="56" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="54.5" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
@@ -3449,10 +3440,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FCAB0A-CF34-4155-AC2A-718F62C76466}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3527,22 +3518,32 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3555,8 +3556,9 @@
     <hyperlink ref="A18" r:id="rId6" xr:uid="{06551A42-4A1C-4F43-95D1-627A24C9BF68}"/>
     <hyperlink ref="A21" r:id="rId7" xr:uid="{538CA7A3-D66B-4AB5-8721-C3ACC7336AEB}"/>
     <hyperlink ref="A24" r:id="rId8" xr:uid="{4F607F03-7CA4-4993-857C-57BCFA452427}"/>
+    <hyperlink ref="A27" r:id="rId9" xr:uid="{E55E5472-F821-461D-A568-ACCB995B0DBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Career Planning.xlsx
+++ b/Career Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brad_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB326D2B-BA14-41CF-AC4B-E663FAB53CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB94130-FC42-41D4-9F2C-409693F81284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="20" windowWidth="25820" windowHeight="13900" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{CB356D7A-17D0-4CB7-939E-E66B980375A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Goal Outline" sheetId="1" r:id="rId7"/>
     <sheet name="Additional Resources" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="269">
   <si>
     <t>July</t>
   </si>
@@ -1432,7 +1432,7 @@
         <v>181</v>
       </c>
       <c r="B3" s="20">
-        <v>4.0199999999999996</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1440,7 +1440,7 @@
         <v>232</v>
       </c>
       <c r="B4" s="21">
-        <v>44937</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1571,7 +1571,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1865,7 +1865,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40:E47"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1873,10 +1873,11 @@
     <col min="1" max="1" width="144.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="125.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.90625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
@@ -3211,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FB7FC5-B546-4BFF-B612-116092AB4C7E}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3222,25 +3223,25 @@
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>258</v>
       </c>
       <c r="B5" s="23">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -3254,7 +3255,7 @@
       <c r="L5" s="24"/>
       <c r="M5" s="25"/>
       <c r="N5" s="23">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
@@ -3267,8 +3268,22 @@
       <c r="W5" s="24"/>
       <c r="X5" s="24"/>
       <c r="Y5" s="25"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z5" s="23">
+        <v>2026</v>
+      </c>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="25"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3293,67 +3308,93 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="4"/>
+    </row>
+    <row r="7" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M7" s="9"/>
       <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z7" s="11"/>
+    </row>
+    <row r="8" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M8" s="9"/>
       <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M9" s="9"/>
       <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M10" s="9"/>
       <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M11" s="9"/>
       <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M12" s="9"/>
       <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M13" s="9"/>
       <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M14" s="9"/>
       <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M15" s="9"/>
       <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M16" s="9"/>
       <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="17" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M17" s="9"/>
       <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z17" s="11"/>
+    </row>
+    <row r="18" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M18" s="9"/>
       <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M19" s="9"/>
       <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z19" s="11"/>
+    </row>
+    <row r="20" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:25" ht="54.5" x14ac:dyDescent="0.35">
+      <c r="Z20" s="11"/>
+    </row>
+    <row r="21" spans="1:37" ht="54.5" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
@@ -3426,11 +3467,48 @@
       <c r="Y21" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="Z21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK21" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="N5:Y5"/>
+    <mergeCell ref="Z5:AK5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
